--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Fgf2-Fgfr2.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Fgf2-Fgfr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -91,7 +94,7 @@
     <t>Fgfr2</t>
   </si>
   <si>
-    <t>ECs</t>
+    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>7.35363595225656</v>
+        <v>0.8896923333333334</v>
       </c>
       <c r="H2">
-        <v>7.35363595225656</v>
+        <v>2.669077</v>
       </c>
       <c r="I2">
-        <v>0.865759563744205</v>
+        <v>0.09326752961394506</v>
       </c>
       <c r="J2">
-        <v>0.865759563744205</v>
+        <v>0.09326752961394505</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.606909080009128</v>
+        <v>0.6105093333333332</v>
       </c>
       <c r="N2">
-        <v>0.606909080009128</v>
+        <v>1.831528</v>
       </c>
       <c r="O2">
-        <v>0.1562510229214423</v>
+        <v>0.1519928013857482</v>
       </c>
       <c r="P2">
-        <v>0.1562510229214423</v>
+        <v>0.1519928013857482</v>
       </c>
       <c r="Q2">
-        <v>4.462988430506077</v>
+        <v>0.5431654732951111</v>
       </c>
       <c r="R2">
-        <v>4.462988430506077</v>
+        <v>4.888489259656</v>
       </c>
       <c r="S2">
-        <v>0.1352758174390536</v>
+        <v>0.01417599310435174</v>
       </c>
       <c r="T2">
-        <v>0.1352758174390536</v>
+        <v>0.01417599310435174</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>7.35363595225656</v>
+        <v>0.8896923333333334</v>
       </c>
       <c r="H3">
-        <v>7.35363595225656</v>
+        <v>2.669077</v>
       </c>
       <c r="I3">
-        <v>0.865759563744205</v>
+        <v>0.09326752961394506</v>
       </c>
       <c r="J3">
-        <v>0.865759563744205</v>
+        <v>0.09326752961394505</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.2140100333434</v>
+        <v>3.333134333333334</v>
       </c>
       <c r="N3">
-        <v>3.2140100333434</v>
+        <v>9.999403000000001</v>
       </c>
       <c r="O3">
-        <v>0.8274589587325535</v>
+        <v>0.8298192952305696</v>
       </c>
       <c r="P3">
-        <v>0.8274589587325535</v>
+        <v>0.8298192952305695</v>
       </c>
       <c r="Q3">
-        <v>23.63465973210733</v>
+        <v>2.965464062336778</v>
       </c>
       <c r="R3">
-        <v>23.63465973210733</v>
+        <v>26.689176561031</v>
       </c>
       <c r="S3">
-        <v>0.7163805071285296</v>
+        <v>0.07739519569214018</v>
       </c>
       <c r="T3">
-        <v>0.7163805071285296</v>
+        <v>0.07739519569214015</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,123 +649,123 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>7.35363595225656</v>
+        <v>0.8896923333333334</v>
       </c>
       <c r="H4">
-        <v>7.35363595225656</v>
+        <v>2.669077</v>
       </c>
       <c r="I4">
-        <v>0.865759563744205</v>
+        <v>0.09326752961394506</v>
       </c>
       <c r="J4">
-        <v>0.865759563744205</v>
+        <v>0.09326752961394505</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.0632735700724076</v>
+        <v>0.0004976666666666667</v>
       </c>
       <c r="N4">
-        <v>0.0632735700724076</v>
+        <v>0.001493</v>
       </c>
       <c r="O4">
-        <v>0.01629001834600423</v>
+        <v>0.0001238994175731532</v>
       </c>
       <c r="P4">
-        <v>0.01629001834600423</v>
+        <v>0.0001238994175731531</v>
       </c>
       <c r="Q4">
-        <v>0.4652907997120812</v>
+        <v>0.0004427702178888889</v>
       </c>
       <c r="R4">
-        <v>0.4652907997120812</v>
+        <v>0.003984931961</v>
       </c>
       <c r="S4">
-        <v>0.01410323917662172</v>
+        <v>1.155579259765461E-05</v>
       </c>
       <c r="T4">
-        <v>0.01410323917662172</v>
+        <v>1.15557925976546E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.277310786559931</v>
+        <v>0.8896923333333334</v>
       </c>
       <c r="H5">
-        <v>0.277310786559931</v>
+        <v>2.669077</v>
       </c>
       <c r="I5">
-        <v>0.03264840238929902</v>
+        <v>0.09326752961394506</v>
       </c>
       <c r="J5">
-        <v>0.03264840238929902</v>
+        <v>0.09326752961394505</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.606909080009128</v>
+        <v>0.07255766666666667</v>
       </c>
       <c r="N5">
-        <v>0.606909080009128</v>
+        <v>0.217673</v>
       </c>
       <c r="O5">
-        <v>0.1562510229214423</v>
+        <v>0.01806400396610915</v>
       </c>
       <c r="P5">
-        <v>0.1562510229214423</v>
+        <v>0.01806400396610915</v>
       </c>
       <c r="Q5">
-        <v>0.1683024343476954</v>
+        <v>0.06455399975788891</v>
       </c>
       <c r="R5">
-        <v>0.1683024343476954</v>
+        <v>0.580985997821</v>
       </c>
       <c r="S5">
-        <v>0.005101346270078831</v>
+        <v>0.001684785024855507</v>
       </c>
       <c r="T5">
-        <v>0.005101346270078831</v>
+        <v>0.001684785024855506</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +773,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.277310786559931</v>
+        <v>7.418580000000001</v>
       </c>
       <c r="H6">
-        <v>0.277310786559931</v>
+        <v>22.25574</v>
       </c>
       <c r="I6">
-        <v>0.03264840238929902</v>
+        <v>0.777698766101638</v>
       </c>
       <c r="J6">
-        <v>0.03264840238929902</v>
+        <v>0.777698766101638</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.2140100333434</v>
+        <v>0.6105093333333332</v>
       </c>
       <c r="N6">
-        <v>3.2140100333434</v>
+        <v>1.831528</v>
       </c>
       <c r="O6">
-        <v>0.8274589587325535</v>
+        <v>0.1519928013857482</v>
       </c>
       <c r="P6">
-        <v>0.8274589587325535</v>
+        <v>0.1519928013857482</v>
       </c>
       <c r="Q6">
-        <v>0.8912796503579684</v>
+        <v>4.52911233008</v>
       </c>
       <c r="R6">
-        <v>0.8912796503579684</v>
+        <v>40.76201097072</v>
       </c>
       <c r="S6">
-        <v>0.02701521304533078</v>
+        <v>0.1182046140940277</v>
       </c>
       <c r="T6">
-        <v>0.02701521304533078</v>
+        <v>0.1182046140940277</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,185 +835,185 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.277310786559931</v>
+        <v>7.418580000000001</v>
       </c>
       <c r="H7">
-        <v>0.277310786559931</v>
+        <v>22.25574</v>
       </c>
       <c r="I7">
-        <v>0.03264840238929902</v>
+        <v>0.777698766101638</v>
       </c>
       <c r="J7">
-        <v>0.03264840238929902</v>
+        <v>0.777698766101638</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.0632735700724076</v>
+        <v>3.333134333333334</v>
       </c>
       <c r="N7">
-        <v>0.0632735700724076</v>
+        <v>9.999403000000001</v>
       </c>
       <c r="O7">
-        <v>0.01629001834600423</v>
+        <v>0.8298192952305696</v>
       </c>
       <c r="P7">
-        <v>0.01629001834600423</v>
+        <v>0.8298192952305695</v>
       </c>
       <c r="Q7">
-        <v>0.01754644348523426</v>
+        <v>24.72712370258001</v>
       </c>
       <c r="R7">
-        <v>0.01754644348523426</v>
+        <v>222.54411332322</v>
       </c>
       <c r="S7">
-        <v>0.0005318430738894093</v>
+        <v>0.6453494419881449</v>
       </c>
       <c r="T7">
-        <v>0.0005318430738894093</v>
+        <v>0.6453494419881448</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.862907975827176</v>
+        <v>7.418580000000001</v>
       </c>
       <c r="H8">
-        <v>0.862907975827176</v>
+        <v>22.25574</v>
       </c>
       <c r="I8">
-        <v>0.101592033866496</v>
+        <v>0.777698766101638</v>
       </c>
       <c r="J8">
-        <v>0.101592033866496</v>
+        <v>0.777698766101638</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.606909080009128</v>
+        <v>0.0004976666666666667</v>
       </c>
       <c r="N8">
-        <v>0.606909080009128</v>
+        <v>0.001493</v>
       </c>
       <c r="O8">
-        <v>0.1562510229214423</v>
+        <v>0.0001238994175731532</v>
       </c>
       <c r="P8">
-        <v>0.1562510229214423</v>
+        <v>0.0001238994175731531</v>
       </c>
       <c r="Q8">
-        <v>0.5237066857418103</v>
+        <v>0.003691979980000001</v>
       </c>
       <c r="R8">
-        <v>0.5237066857418103</v>
+        <v>0.03322781982</v>
       </c>
       <c r="S8">
-        <v>0.0158738592123098</v>
+        <v>9.635642416735281E-05</v>
       </c>
       <c r="T8">
-        <v>0.0158738592123098</v>
+        <v>9.63564241673528E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>20</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.862907975827176</v>
+        <v>7.418580000000001</v>
       </c>
       <c r="H9">
-        <v>0.862907975827176</v>
+        <v>22.25574</v>
       </c>
       <c r="I9">
-        <v>0.101592033866496</v>
+        <v>0.777698766101638</v>
       </c>
       <c r="J9">
-        <v>0.101592033866496</v>
+        <v>0.777698766101638</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>3.2140100333434</v>
+        <v>0.07255766666666667</v>
       </c>
       <c r="N9">
-        <v>3.2140100333434</v>
+        <v>0.217673</v>
       </c>
       <c r="O9">
-        <v>0.8274589587325535</v>
+        <v>0.01806400396610915</v>
       </c>
       <c r="P9">
-        <v>0.8274589587325535</v>
+        <v>0.01806400396610915</v>
       </c>
       <c r="Q9">
-        <v>2.773394892160588</v>
+        <v>0.5382748547800001</v>
       </c>
       <c r="R9">
-        <v>2.773394892160588</v>
+        <v>4.844473693020001</v>
       </c>
       <c r="S9">
-        <v>0.08406323855869308</v>
+        <v>0.01404835359529818</v>
       </c>
       <c r="T9">
-        <v>0.08406323855869308</v>
+        <v>0.01404835359529818</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,61 +1021,495 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.298413</v>
+      </c>
+      <c r="H10">
+        <v>0.895239</v>
+      </c>
+      <c r="I10">
+        <v>0.031282997809377</v>
+      </c>
+      <c r="J10">
+        <v>0.03128299780937701</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.6105093333333332</v>
+      </c>
+      <c r="N10">
+        <v>1.831528</v>
+      </c>
+      <c r="O10">
+        <v>0.1519928013857482</v>
+      </c>
+      <c r="P10">
+        <v>0.1519928013857482</v>
+      </c>
+      <c r="Q10">
+        <v>0.182183921688</v>
+      </c>
+      <c r="R10">
+        <v>1.639655295192</v>
+      </c>
+      <c r="S10">
+        <v>0.004754790472791434</v>
+      </c>
+      <c r="T10">
+        <v>0.004754790472791435</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.298413</v>
+      </c>
+      <c r="H11">
+        <v>0.895239</v>
+      </c>
+      <c r="I11">
+        <v>0.031282997809377</v>
+      </c>
+      <c r="J11">
+        <v>0.03128299780937701</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>3.333134333333334</v>
+      </c>
+      <c r="N11">
+        <v>9.999403000000001</v>
+      </c>
+      <c r="O11">
+        <v>0.8298192952305696</v>
+      </c>
+      <c r="P11">
+        <v>0.8298192952305695</v>
+      </c>
+      <c r="Q11">
+        <v>0.9946506158130001</v>
+      </c>
+      <c r="R11">
+        <v>8.951855542317</v>
+      </c>
+      <c r="S11">
+        <v>0.02595923519487668</v>
+      </c>
+      <c r="T11">
+        <v>0.02595923519487668</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.298413</v>
+      </c>
+      <c r="H12">
+        <v>0.895239</v>
+      </c>
+      <c r="I12">
+        <v>0.031282997809377</v>
+      </c>
+      <c r="J12">
+        <v>0.03128299780937701</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.0004976666666666667</v>
+      </c>
+      <c r="N12">
+        <v>0.001493</v>
+      </c>
+      <c r="O12">
+        <v>0.0001238994175731532</v>
+      </c>
+      <c r="P12">
+        <v>0.0001238994175731531</v>
+      </c>
+      <c r="Q12">
+        <v>0.000148510203</v>
+      </c>
+      <c r="R12">
+        <v>0.001336591827</v>
+      </c>
+      <c r="S12">
+        <v>3.875945208524037E-06</v>
+      </c>
+      <c r="T12">
+        <v>3.875945208524037E-06</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.298413</v>
+      </c>
+      <c r="H13">
+        <v>0.895239</v>
+      </c>
+      <c r="I13">
+        <v>0.031282997809377</v>
+      </c>
+      <c r="J13">
+        <v>0.03128299780937701</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.07255766666666667</v>
+      </c>
+      <c r="N13">
+        <v>0.217673</v>
+      </c>
+      <c r="O13">
+        <v>0.01806400396610915</v>
+      </c>
+      <c r="P13">
+        <v>0.01806400396610915</v>
+      </c>
+      <c r="Q13">
+        <v>0.021652150983</v>
+      </c>
+      <c r="R13">
+        <v>0.194869358847</v>
+      </c>
+      <c r="S13">
+        <v>0.0005650961965003701</v>
+      </c>
+      <c r="T13">
+        <v>0.0005650961965003703</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>0.862907975827176</v>
-      </c>
-      <c r="H10">
-        <v>0.862907975827176</v>
-      </c>
-      <c r="I10">
-        <v>0.101592033866496</v>
-      </c>
-      <c r="J10">
-        <v>0.101592033866496</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>0.0632735700724076</v>
-      </c>
-      <c r="N10">
-        <v>0.0632735700724076</v>
-      </c>
-      <c r="O10">
-        <v>0.01629001834600423</v>
-      </c>
-      <c r="P10">
-        <v>0.01629001834600423</v>
-      </c>
-      <c r="Q10">
-        <v>0.05459926827454022</v>
-      </c>
-      <c r="R10">
-        <v>0.05459926827454022</v>
-      </c>
-      <c r="S10">
-        <v>0.001654936095493102</v>
-      </c>
-      <c r="T10">
-        <v>0.001654936095493102</v>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.9324580000000001</v>
+      </c>
+      <c r="H14">
+        <v>2.797374</v>
+      </c>
+      <c r="I14">
+        <v>0.09775070647503986</v>
+      </c>
+      <c r="J14">
+        <v>0.09775070647503986</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0.6105093333333332</v>
+      </c>
+      <c r="N14">
+        <v>1.831528</v>
+      </c>
+      <c r="O14">
+        <v>0.1519928013857482</v>
+      </c>
+      <c r="P14">
+        <v>0.1519928013857482</v>
+      </c>
+      <c r="Q14">
+        <v>0.5692743119413333</v>
+      </c>
+      <c r="R14">
+        <v>5.123468807472</v>
+      </c>
+      <c r="S14">
+        <v>0.0148574037145773</v>
+      </c>
+      <c r="T14">
+        <v>0.0148574037145773</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.9324580000000001</v>
+      </c>
+      <c r="H15">
+        <v>2.797374</v>
+      </c>
+      <c r="I15">
+        <v>0.09775070647503986</v>
+      </c>
+      <c r="J15">
+        <v>0.09775070647503986</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>3.333134333333334</v>
+      </c>
+      <c r="N15">
+        <v>9.999403000000001</v>
+      </c>
+      <c r="O15">
+        <v>0.8298192952305696</v>
+      </c>
+      <c r="P15">
+        <v>0.8298192952305695</v>
+      </c>
+      <c r="Q15">
+        <v>3.108007774191334</v>
+      </c>
+      <c r="R15">
+        <v>27.97206996772201</v>
+      </c>
+      <c r="S15">
+        <v>0.08111542235540786</v>
+      </c>
+      <c r="T15">
+        <v>0.08111542235540785</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.9324580000000001</v>
+      </c>
+      <c r="H16">
+        <v>2.797374</v>
+      </c>
+      <c r="I16">
+        <v>0.09775070647503986</v>
+      </c>
+      <c r="J16">
+        <v>0.09775070647503986</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.0004976666666666667</v>
+      </c>
+      <c r="N16">
+        <v>0.001493</v>
+      </c>
+      <c r="O16">
+        <v>0.0001238994175731532</v>
+      </c>
+      <c r="P16">
+        <v>0.0001238994175731531</v>
+      </c>
+      <c r="Q16">
+        <v>0.0004640532646666667</v>
+      </c>
+      <c r="R16">
+        <v>0.004176479382000001</v>
+      </c>
+      <c r="S16">
+        <v>1.211125559962169E-05</v>
+      </c>
+      <c r="T16">
+        <v>1.211125559962169E-05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.9324580000000001</v>
+      </c>
+      <c r="H17">
+        <v>2.797374</v>
+      </c>
+      <c r="I17">
+        <v>0.09775070647503986</v>
+      </c>
+      <c r="J17">
+        <v>0.09775070647503986</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.07255766666666667</v>
+      </c>
+      <c r="N17">
+        <v>0.217673</v>
+      </c>
+      <c r="O17">
+        <v>0.01806400396610915</v>
+      </c>
+      <c r="P17">
+        <v>0.01806400396610915</v>
+      </c>
+      <c r="Q17">
+        <v>0.06765697674466668</v>
+      </c>
+      <c r="R17">
+        <v>0.6089127907020001</v>
+      </c>
+      <c r="S17">
+        <v>0.001765769149455092</v>
+      </c>
+      <c r="T17">
+        <v>0.001765769149455092</v>
       </c>
     </row>
   </sheetData>
